--- a/학습자료/연표/삼국시대_연도(왕)_연도별모음.xlsx
+++ b/학습자료/연표/삼국시대_연도(왕)_연도별모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,239 +728,203 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>400년 : 내물왕</t>
+          <t>410년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>전기 가야연맹 몰락</t>
+          <t>고구려 동예 통합</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>410년 : 광개토대왕</t>
+          <t>414년 : 장수왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>고구려 동예 통합</t>
+          <t>고구려 광개토대왕릉비 건립</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>414년 : 장수왕</t>
+          <t>427년 : 장수왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>고구려 광개토대왕릉비 건립</t>
+          <t>고구려 평양성 천도</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>427년 : 장수왕</t>
+          <t>433년 : 눌지왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>고구려 평양성 천도</t>
+          <t>나제 동맹 체결</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>433년 : 눌지왕</t>
+          <t>457년 : 눌지왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>나제 동맹 체결</t>
+          <t>고구려의 묵호자 신라에 불교 전래</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>433년 : 비유왕</t>
+          <t>472년 : 개로왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>나제 동맹 체결</t>
+          <t>백제 북위에 원병 요청</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>457년 : 눌지왕</t>
+          <t>475년 : 장수왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>고구려의 묵호자 신라에 불교 전래</t>
+          <t>백제 수도 위례성 함락 개로왕 전사</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>472년 : 개로왕</t>
+          <t>475년 : 문주왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>백제 북위에 원병 요청</t>
+          <t>백제 웅진 천도</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>475년 : 장수왕</t>
+          <t>479년 : 장수왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>백제 수도 위례성 함락 개로왕 전사</t>
+          <t>고구려 거란 흥안령 일대 장악</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>475년 : 문주왕</t>
+          <t>487년 : 소지왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>백제 웅진 천도</t>
+          <t>신라 우역 설치
+신라 나을에 신궁 설치</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>479년 : 장수왕</t>
+          <t>490년 : 소지왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>고구려 거란 흥안령 일대 장악</t>
+          <t>신라 경주에 시장 개설</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>487년 : 소지왕</t>
+          <t>493년 : 동성왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>신라 우역 설치
-신라 나을에 신궁 설치</t>
+          <t>백제 신라 결혼 동맹 체결</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>490년 : 소지왕</t>
+          <t>494년 : 문자왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>신라 경주에 시장 개설</t>
+          <t>고구려 부여 복속</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>493년 : 동성왕</t>
+          <t>498년 : 동성왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>백제 신라 결혼 동맹 체결</t>
+          <t>백제 탐라 복속</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>493년 : 소지왕</t>
+          <t>501년 : 지증왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>백제 신라 결혼 동맹 체결</t>
+          <t>신라 포항 중성리 신라비 건립</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>494년 : 문자왕</t>
+          <t>502년 : 지증왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>고구려 부여 복속</t>
+          <t>신라 소를 이용한 농사 시작</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>498년 : 동성왕</t>
+          <t>503년 : 지증왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>백제 탐라 복속</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>501년 : 지증왕</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>신라 포항 중성리 신라비 건립</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>502년 : 지증왕</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>신라 소를 이용한 농사 시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>503년 : 지증왕</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
         <is>
           <t>신라 사로국을 신라로 개칭
 신라 왕 칭호 사용
@@ -968,85 +932,85 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>504년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>신라 상복법 제정</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>505년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>신라 이사부 실직주 군주로 파견</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>509년 : 지증왕</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>신라 경주에 동시 및 동시전 개설</t>
+        </is>
+      </c>
+    </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>504년 : 지증왕</t>
+          <t>512년 : 지증왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>신라 상복법 제정</t>
+          <t>신라 이사부의 우산국 정벌</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>505년 : 지증왕</t>
+          <t>514년 : 지증왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>신라 이사부 실직주 군주로 파견</t>
+          <t>신라 아시촌 소경 설치</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>509년 : 지증왕</t>
+          <t>517년 : 법흥왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>신라 경주에 동시 및 동시전 개설</t>
+          <t>신라 병부 설치</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512년 : 지증왕</t>
+          <t>520년 : 법흥왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>신라 이사부의 우산국 정벌</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>514년 : 지증왕</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>신라 아시촌 소경 설치</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>517년 : 법흥왕</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>신라 병부 설치</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>520년 : 법흥왕</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
         <is>
           <t>신라의 4색 공복 제정
 신라 율령 반포
@@ -1054,678 +1018,678 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>522년 : 법흥왕</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>대가야 신라의 결혼 동맹</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>524년 : 법흥왕</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>신라 울진 봉평 신라비 건립</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>525년 : 성왕</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>백제 무령왕릉 축조</t>
+        </is>
+      </c>
+    </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>522년 : 법흥왕</t>
+          <t>526년 : 성왕</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>대가야 신라의 결혼 동맹</t>
+          <t>백제 겸익 인도의 율장 번역</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>524년 : 법흥왕</t>
+          <t>527년 : 법흥왕</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>신라 울진 봉평 신라비 건립</t>
+          <t>신라 불교 공인</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>525년 : 성왕</t>
+          <t>531년 : 법흥왕</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>백제 무령왕릉 축조</t>
+          <t>신라 상대등 설치</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>526년 : 성왕</t>
+          <t>532년 : 법흥왕</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>백제 겸익 인도의 율장 번역</t>
+          <t>금관가야 정복</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>527년 : 법흥왕</t>
+          <t>536년 : 법흥왕</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>신라 불교 공인</t>
+          <t>신라 연호 건원 사용</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>531년 : 법흥왕</t>
+          <t>538년 : 성왕</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>신라 상대등 설치</t>
+          <t>백제 사비 천도
+백제 남부여로 국호 개칭</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>532년 : 법흥왕</t>
+          <t>545년 : 진흥왕</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>금관가야 정복</t>
+          <t>신라 거칠부 국사 편찬</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>536년 : 법흥왕</t>
+          <t>551년 : 성왕</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>신라 연호 건원 사용</t>
+          <t>백제 신라의 한강 회복
+백제 노리사치계 일본에 불교 전파</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>538년 : 성왕</t>
+          <t>551년 : 진흥왕</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>백제 사비 천도
-백제 남부여로 국호 개칭</t>
+          <t>신라 단양 적성비 건립</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>545년 : 진흥왕</t>
+          <t>552년 : 성왕</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>신라 거칠부 국사 편찬</t>
+          <t>백제 성왕 관산성 전투 전사</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>551년 : 성왕</t>
+          <t>554년 : 진흥왕</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>백제 신라의 한강 회복
-백제 노리사치계 일본에 불교 전파</t>
+          <t>신라 북한산 순수비 건립</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>551년 : 진흥왕</t>
+          <t>555년 : 진흥왕</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>신라 단양 적성비 건립</t>
+          <t>신라 창녕비 건립</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>552년 : 성왕</t>
+          <t>561년 : 진흥왕</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>백제 성왕 관산성 전투 전사</t>
+          <t>대가야 정복</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>554년 : 진흥왕</t>
+          <t>562년 : 진흥왕</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>신라 북한산 순수비 건립</t>
+          <t>신라 품주 설치</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>555년 : 진흥왕</t>
+          <t>565년 : 위덕왕</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>신라 창녕비 건립</t>
+          <t>백제 창왕명 석조 사리감 제작</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>561년 : 진흥왕</t>
+          <t>567년 : 진흥왕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>대가야 정복</t>
+          <t>신라 황룡사 건립
+신라 황초령비 건립</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>562년 : 진흥왕</t>
+          <t>568년 : 진흥왕</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>신라 품주 설치</t>
+          <t>신라 마운령비 건립</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>565년 : 위덕왕</t>
+          <t>568년 : 진평왕</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>백제 창왕명 석조 사리감 제작</t>
+          <t>신라 위화부 설치</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>567년 : 진흥왕</t>
+          <t>581년 : 진평왕</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>신라 황룡사 건립
-신라 황초령비 건립</t>
+          <t>신라 조부 설치</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>568년 : 진흥왕</t>
+          <t>584년 : 진평왕</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>신라 마운령비 건립</t>
+          <t>신라 예부 설치</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>568년 : 진평왕</t>
+          <t>586년 : 영양왕</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>신라 위화부 설치</t>
+          <t>고구려 온달 신라 아단성에서 전사</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>581년 : 진평왕</t>
+          <t>590년 : 영양왕</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>신라 조부 설치</t>
+          <t>고구려 혜자 일본 태자의 스승 파견</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>584년 : 진평왕</t>
+          <t>595년 : 영양왕</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>신라 예부 설치</t>
+          <t>고구려 수나라 요서지방 선제 공격</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>586년 : 영양왕</t>
+          <t>598년 : 영양왕</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>고구려 온달 신라 아단성에서 전사</t>
+          <t>수 문제의 고구려 1차 침입
+고구려 이문진 신집 5권 편찬</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>590년 : 영양왕</t>
+          <t>600년 : 진평왕</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>고구려 혜자 일본 태자의 스승 파견</t>
+          <t>신라 원광 수나라에 걸사표 전달</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>595년 : 영양왕</t>
+          <t>608년 : 진평왕</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>고구려 수나라 요서지방 선제 공격</t>
+          <t>신라 김유신을 중심으로 향도 조직</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>598년 : 영양왕</t>
+          <t>609년 : 영양왕</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>수 문제의 고구려 1차 침입
-고구려 이문진 신집 5권 편찬</t>
+          <t>고구려 담징 일본에 종이 먹 제조법 전래</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>600년 : 진평왕</t>
+          <t>610년 : 진평왕</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>신라 원광 수나라에 걸사표 전달</t>
+          <t>신라 임신서기석 건립</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>608년 : 진평왕</t>
+          <t>612년 : 영양왕</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>신라 김유신을 중심으로 향도 조직</t>
+          <t>수 양제의 고구려 2차 침입 및 살수대첩</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>609년 : 영양왕</t>
+          <t>612년 : 영류왕</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>고구려 담징 일본에 종이 먹 제조법 전래</t>
+          <t>고구려 당으로부터 도교 수용</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>610년 : 진평왕</t>
+          <t>624년 : 영류왕</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>신라 임신서기석 건립</t>
+          <t>고구려 천리장성 축조 시작</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>612년 : 영양왕</t>
+          <t>631년 : 무왕</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>수 양제의 고구려 2차 침입 및 살수대첩</t>
+          <t>백제 왕흥사 준공</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>612년 : 영류왕</t>
+          <t>634년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>고구려 당으로부터 도교 수용</t>
+          <t>신라 분황사 창건 및 모전석탑 건립</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>624년 : 영류왕</t>
+          <t>634년 : 무왕</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>고구려 천리장성 축조 시작</t>
+          <t>백제 익산으로 천도 시도 실패</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>631년 : 무왕</t>
+          <t>638년 : 영류왕</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>백제 왕흥사 준공</t>
+          <t>고구려 연개소문의 정변</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>634년 : 선덕여왕</t>
+          <t>642년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>신라 분황사 창건 및 모전석탑 건립</t>
+          <t>신라 김춘추 고구려와 화친 시도 실패</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>634년 : 무왕</t>
+          <t>642년 : 의자왕</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>백제 익산으로 천도 시도 실패</t>
+          <t>백제 신라의 대야성 함락</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>638년 : 영류왕</t>
+          <t>642년 : 보장왕</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>고구려 연개소문의 정변</t>
+          <t>고구려 연개소문의 도교 도입 및 장려</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>642년 : 선덕여왕</t>
+          <t>643년 : 보장왕</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>신라 김춘추 고구려와 화친 시도 실패</t>
+          <t>당 태종의 고구려 침입</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>642년 : 의자왕</t>
+          <t>644년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>백제 신라의 대야성 함락</t>
+          <t>신라 황룡사 9층 목탑 건립</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>642년 : 보장왕</t>
+          <t>645년 : 의자왕</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>고구려 연개소문의 도교 도입 및 장려</t>
+          <t>백제 사택지적비 건립</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>643년 : 보장왕</t>
+          <t>645년 : 보장왕</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>당 태종의 고구려 침입</t>
+          <t>고구려 양만춘 안시성 전투 활약</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>644년 : 선덕여왕</t>
+          <t>645년 : 선덕여왕</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>신라 황룡사 9층 목탑 건립</t>
+          <t>신라 비담 염종의 난</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>645년 : 의자왕</t>
+          <t>647년 : 보장왕</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>백제 사택지적비 건립</t>
+          <t>고구려 천리장성 완성</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>645년 : 보장왕</t>
+          <t>647년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>고구려 양만춘 안시성 전투 활약</t>
+          <t>신라 나당 동맹 체결</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>645년 : 선덕여왕</t>
+          <t>648년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>신라 비담 염종의 난</t>
+          <t>신라 당나라 연호인 영휘 사용</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>647년 : 보장왕</t>
+          <t>650년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>고구려 천리장성 완성</t>
+          <t>신라 당나라에 태평송 전함
+신라 품주를 집사부 창부로 분리</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>647년 : 진덕여왕</t>
+          <t>651년 : 진덕여왕</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>신라 나당 동맹 체결</t>
+          <t>신라 좌이방부 설치</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>648년 : 진덕여왕</t>
+          <t>651년 : 무열왕</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>신라 당나라 연호인 영휘 사용</t>
+          <t>신라 사정부 설치</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>650년 : 진덕여왕</t>
+          <t>659년 : 의자왕</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>신라 당나라에 태평송 전함
-신라 품주를 집사부 창부로 분리</t>
+          <t>백제 황산벌 전투</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>651년 : 진덕여왕</t>
+          <t>660년 : 의자왕</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>신라 좌이방부 설치</t>
+          <t>백제 멸망</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>651년 : 무열왕</t>
+          <t>660년 : 문무왕</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>신라 사정부 설치</t>
+          <t>신라 복신 도침의 주류성 함락</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>659년 : 의자왕</t>
+          <t>660년 : 멸망</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>백제 황산벌 전투</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>660년 : 의자왕</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>백제 멸망</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>660년 : 문무왕</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>신라 복신 도침의 주류성 함락</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>660년 : 멸망</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
         <is>
           <t>당의 웅진도독부 설치
 백제 부흥 운동
@@ -1733,136 +1697,136 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>663년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>당의 계림도독부 설치
+신라 취리산 회맹</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>665년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>고구려 연정토 신라에 투항</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>666년 : 문무왕</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>신라 우이방부 설치</t>
+        </is>
+      </c>
+    </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>663년 : 문무왕</t>
+          <t>667년 : 보장왕</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>당의 계림도독부 설치
-신라 취리산 회맹</t>
+          <t>고구려 멸망</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>665년 : 문무왕</t>
+          <t>668년 : 멸망</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>고구려 연정토 신라에 투항</t>
+          <t>당의 안동도호부 설치
+고구려 부흥 운동</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>666년 : 문무왕</t>
+          <t>668년 : 문무왕</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>신라 우이방부 설치</t>
+          <t>신라 사비에 소부리주 설치</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>667년 : 보장왕</t>
+          <t>671년 : 문무왕</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>고구려 멸망</t>
+          <t>신라 외사정 설치</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>668년 : 멸망</t>
+          <t>673년 : 문무왕</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>당의 안동도호부 설치
-고구려 부흥 운동</t>
+          <t>신라 안승을 보덕국왕에 임명</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>668년 : 문무왕</t>
+          <t>674년 : 문무왕</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>신라 사비에 소부리주 설치</t>
+          <t>신라 당나라와 마전 적성 전투</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>671년 : 문무왕</t>
+          <t>675년 : 문무왕</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>신라 외사정 설치</t>
+          <t>신라 당나라와 매소성 전투
+의상 부석사 건립</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>673년 : 문무왕</t>
+          <t>676년 : 문무왕</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>신라 안승을 보덕국왕에 임명</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>674년 : 문무왕</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>신라 당나라와 마전 적성 전투</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>675년 : 문무왕</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>신라 당나라와 매소성 전투
-의상 부석사 건립</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>676년 : 문무왕</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
         <is>
           <t>신라 당의 안동도호부 축출
 신라 당나라와 기벌포 전투
@@ -1870,656 +1834,656 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>676년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>통일신라 문무왕릉 건립</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>681년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>통일신라 김흠돌 모역 사건
+통일신라 국학 설립</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>682년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>통일신라 감은사 창건
+안승의 조카 대문의 금마저 반역</t>
+        </is>
+      </c>
+    </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>676년 : 신문왕</t>
+          <t>684년 : 신문왕</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>통일신라 문무왕릉 건립</t>
+          <t>통일신라 9주 5소경 정비</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>681년 : 신문왕</t>
+          <t>685년 : 신문왕</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>통일신라 김흠돌 모역 사건
-통일신라 국학 설립</t>
+          <t>통일신라 관료전 지급</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>682년 : 신문왕</t>
+          <t>687년 : 신문왕</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>통일신라 감은사 창건
-안승의 조카 대문의 금마저 반역</t>
+          <t>통일신라 9서당 10정 정비
+통일신라 녹읍 폐지</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>684년 : 신문왕</t>
+          <t>689년 : 신문왕</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>통일신라 9주 5소경 정비</t>
+          <t>통일신라 달구벌 천도 실패</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>685년 : 신문왕</t>
+          <t>689년 : 효소왕</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>통일신라 관료전 지급</t>
+          <t>통일신라 서시 남시 증설</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>687년 : 신문왕</t>
+          <t>695년 : 고왕</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>통일신라 9서당 10정 정비
-통일신라 녹읍 폐지</t>
+          <t>발해 건국</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>689년 : 신문왕</t>
+          <t>698년 : 고왕</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>통일신라 달구벌 천도 실패</t>
+          <t>당의 발해군왕 책봉 및 국호 발해 사용</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>689년 : 효소왕</t>
+          <t>713년 : 성덕왕</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>통일신라 서시 남시 증설</t>
+          <t>통일신라 공자 화상 국학에 안치</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>695년 : 고왕</t>
+          <t>717년 : 무왕</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>발해 건국</t>
+          <t>발해 연호 인안 사용</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>698년 : 고왕</t>
+          <t>720년 : 성덕왕</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>당의 발해군왕 책봉 및 국호 발해 사용</t>
+          <t>통일신라 정전 지급</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>713년 : 성덕왕</t>
+          <t>722년 : 성덕왕</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>통일신라 공자 화상 국학에 안치</t>
+          <t>통일신라 상원사 동종 주조</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>717년 : 무왕</t>
+          <t>725년 : 무왕</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>발해 연호 인안 사용</t>
+          <t>발해 나당 견제위해 일본에 사신 파견</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>720년 : 성덕왕</t>
+          <t>727년 : 무왕</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>통일신라 정전 지급</t>
+          <t>발해 장문휴 당 산둥반도 등주 공격</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>722년 : 성덕왕</t>
+          <t>732년 : 성덕왕</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>통일신라 상원사 동종 주조</t>
+          <t>통일신라 발해 공격</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>725년 : 무왕</t>
+          <t>733년 : 문왕</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>발해 나당 견제위해 일본에 사신 파견</t>
+          <t>발해 연호 대흥 사용</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>727년 : 무왕</t>
+          <t>737년 : 경덕왕</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>발해 장문휴 당 산둥반도 등주 공격</t>
+          <t>통일신라 불국사 석굴암 건립</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>732년 : 성덕왕</t>
+          <t>751년 : 문왕</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>통일신라 발해 공격</t>
+          <t>발해 중경에서 상경 천도</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>733년 : 문왕</t>
+          <t>755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>발해 연호 대흥 사용</t>
+          <t>통일신라 녹읍 부활</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>737년 : 경덕왕</t>
+          <t>757년 : 문왕</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>통일신라 불국사 석굴암 건립</t>
+          <t>당의 발해국왕 책봉</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>751년 : 문왕</t>
+          <t>762년 : 혜공왕</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>발해 중경에서 상경 천도</t>
+          <t>통일신라 대공의 난 발발</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>755년 : 경덕왕</t>
+          <t>768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>통일신라 녹읍 부활</t>
+          <t>통일신라 96각간의 난 발발
+통일신라 성덕대왕신종 완성</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>757년 : 문왕</t>
+          <t>771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>당의 발해국왕 책봉</t>
+          <t>통일신라 김지정의 난 발발</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>762년 : 혜공왕</t>
+          <t>780년 : 문왕</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>통일신라 대공의 난 발발</t>
+          <t>발해 정혜공주묘 축조
+발해 동경 천도</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>768년 : 혜공왕</t>
+          <t>785년 : 원성왕</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>통일신라 96각간의 난 발발
-통일신라 성덕대왕신종 완성</t>
+          <t>통일신라 독서삼품과 실시</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>771년 : 혜공왕</t>
+          <t>788년 : 문왕</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>통일신라 김지정의 난 발발</t>
+          <t>발해 정효공주묘 축조</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>780년 : 문왕</t>
+          <t>792년 : 소성왕</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>발해 정혜공주묘 축조
-발해 동경 천도</t>
+          <t>신라 청주 거로현을 국학생의 녹읍으로 사용</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>785년 : 원성왕</t>
+          <t>799년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>통일신라 독서삼품과 실시</t>
+          <t>통일신라 이차돈 순교비 건립</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>788년 : 문왕</t>
+          <t>817년 : 선왕</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>발해 정효공주묘 축조</t>
+          <t>발해 연호 건흥 사용</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>792년 : 소성왕</t>
+          <t>818년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>신라 청주 거로현을 국학생의 녹읍으로 사용</t>
+          <t>통일신라 김헌창의 난</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>799년 : 헌덕왕</t>
+          <t>822년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>통일신라 이차돈 순교비 건립</t>
+          <t>통일신라 김범문의 난</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>817년 : 선왕</t>
+          <t>825년 : 흥덕왕</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>발해 연호 건흥 사용</t>
+          <t>통일신라 장보고 청해진 설치</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>818년 : 헌덕왕</t>
+          <t>828년 : 흥덕왕</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>통일신라 김헌창의 난</t>
+          <t>통일신라 사치 금지령 발표</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>822년 : 헌덕왕</t>
+          <t>834년 : 문성왕</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>통일신라 김범문의 난</t>
+          <t>통일신라 장보고의 난</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>825년 : 흥덕왕</t>
+          <t>846년 : 진성여왕</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>통일신라 장보고 청해진 설치</t>
+          <t>통일신라 향가집 삼대목 편찬</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>828년 : 흥덕왕</t>
+          <t>888년 : 진성여왕</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>통일신라 사치 금지령 발표</t>
+          <t>통일신라 원종 애노의 난 발발</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>834년 : 문성왕</t>
+          <t>889년 : 진성여왕</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>통일신라 장보고의 난</t>
+          <t>통일신라 견훤 무진주 점령</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>846년 : 진성여왕</t>
+          <t>892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>통일신라 향가집 삼대목 편찬</t>
+          <t>통일신라 최치원 시무 10조 건의 좌절</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>888년 : 진성여왕</t>
+          <t>894년 : 진성여왕</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>통일신라 원종 애노의 난 발발</t>
+          <t>통일신라 적고적의 난 발발</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>889년 : 진성여왕</t>
+          <t>896년 : 효공왕</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>통일신라 견훤 무진주 점령</t>
+          <t>통일신라 발해와 쟁장 사건</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>892년 : 진성여왕</t>
+          <t>897년 : 효공왕</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>통일신라 최치원 시무 10조 건의 좌절</t>
+          <t>견훤 후백제 건국</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>894년 : 진성여왕</t>
+          <t>900년 : 효공왕</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>통일신라 적고적의 난 발발</t>
+          <t>궁예 후고구려 건국</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>896년 : 효공왕</t>
+          <t>901년 : 효공왕</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>통일신라 발해와 쟁장 사건</t>
+          <t>후고구려 국호 마진으로 변경
+후고구려 철원으로 수도 이전</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>897년 : 효공왕</t>
+          <t>905년 : 효공왕</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>견훤 후백제 건국</t>
+          <t>통일신라 발해와 등제 서열 사건</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>900년 : 효공왕</t>
+          <t>906년 : 효공왕</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>궁예 후고구려 건국</t>
+          <t>후고구려 국호 태봉으로 변경</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>901년 : 효공왕</t>
+          <t>911년 : 경명왕</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>후고구려 국호 마진으로 변경
-후고구려 철원으로 수도 이전</t>
+          <t>후고구려 멸망 및 고려 건국</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>905년 : 효공왕</t>
+          <t>918년 : 애왕</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>통일신라 발해와 등제 서열 사건</t>
+          <t>발해 멸망</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>906년 : 효공왕</t>
+          <t>926년 : 경애왕</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>후고구려 국호 태봉으로 변경</t>
+          <t>후백제 견훤 경주 침공 및 신라왕 살해</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>911년 : 경명왕</t>
+          <t>927년 : 경순왕</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>후고구려 멸망 및 고려 건국</t>
+          <t>후백제 고려의 공산 전투 
+후백제 고려의 고창 전투</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>918년 : 애왕</t>
+          <t>930년 : 경순왕</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>발해 멸망</t>
+          <t>발해 대광현의 고려 망명</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>926년 : 경애왕</t>
+          <t>934년 : 경순왕</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>후백제 견훤 경주 침공 및 신라왕 살해</t>
+          <t>후백제 견훤 고려에 투항</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>927년 : 경순왕</t>
+          <t>935년 : 경순왕</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
-        <is>
-          <t>후백제 고려의 공산 전투 
-후백제 고려의 고창 전투</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>930년 : 경순왕</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>발해 대광현의 고려 망명</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>934년 : 경순왕</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>후백제 견훤 고려에 투항</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>935년 : 경순왕</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
         <is>
           <t>통일신라 멸망</t>
         </is>
